--- a/Exel/Lab13.xlsx
+++ b/Exel/Lab13.xlsx
@@ -388,7 +388,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,15 +409,15 @@
       </c>
       <c r="F1">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1">
         <f t="shared" ref="G1:H4" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -431,29 +431,29 @@
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F4" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -467,15 +467,15 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -484,18 +484,18 @@
         <v>11.58</v>
       </c>
       <c r="B5">
-        <f>INT(B4)</f>
+        <f>ODD(B4)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6">
         <f ca="1">SUMSQ(F1:H4)</f>
-        <v>280</v>
+        <v>552</v>
       </c>
       <c r="G6">
         <f ca="1">SUMIF(F1:H4,"&gt;=4")</f>
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">

--- a/Exel/Lab13.xlsx
+++ b/Exel/Lab13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Титульник" sheetId="2" r:id="rId1"/>
@@ -363,17 +363,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="33.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="33.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -388,12 +388,12 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>2</v>
       </c>
@@ -409,18 +409,18 @@
       </c>
       <c r="F1">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1">
         <f t="shared" ref="G1:H4" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COS(90)</f>
         <v>-0.44807361612917013</v>
@@ -431,7 +431,7 @@
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F4" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
@@ -439,24 +439,24 @@
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="G3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>LOG(Y,X)+9</f>
         <v>11.584962500721156</v>
@@ -467,18 +467,18 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>ROUND((LOG(Y,X)+9), 2)</f>
         <v>11.58</v>
@@ -487,18 +487,18 @@
         <f>ODD(B4)</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f ca="1">SUMIF(F1:H4,"&gt;=4")</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F6">
         <f ca="1">SUMSQ(F1:H4)</f>
-        <v>552</v>
-      </c>
-      <c r="G6">
-        <f ca="1">SUMIF(F1:H4,"&gt;=4")</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>(EXP(PI()))</f>
         <v>23.140692632779267</v>
